--- a/2_metal_balance/data/45月份对比.xlsx
+++ b/2_metal_balance/data/45月份对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8370"/>
+    <workbookView windowWidth="8310" windowHeight="8090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4015,7 +4015,7 @@
     <mergeCell ref="B54:B63"/>
     <mergeCell ref="B64:B65"/>
   </mergeCells>
-  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.196527777777778" bottom="0.196527777777778" header="0.196527777777778" footer="0.196527777777778"/>
+  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.393055555555556" header="0.393055555555556" footer="0.393055555555556"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200"/>
   <headerFooter/>
 </worksheet>
